--- a/biology/Médecine/Spirochétose_(maladie_professionnelle_en_France)/Spirochétose_(maladie_professionnelle_en_France).xlsx
+++ b/biology/Médecine/Spirochétose_(maladie_professionnelle_en_France)/Spirochétose_(maladie_professionnelle_en_France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour que la leptospirose ou la maladie de Lyme soit reconnue comme maladie professionnelle. Pour la description clinique de la maladie se reporter aux articles suivants :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
-Régime agricole : maladie de Lyme
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -526,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +557,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime agricole : maladie de Lyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Leptospirose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agent pathogène
-L'agent pathogène responsable de la leptospirose est la Leptospira interrogans (bactérie de l'ordre des Spirochætales, comme le tréponème pâle, agent pathogène de la syphilis).
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Agent pathogène</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agent pathogène responsable de la leptospirose est la Leptospira interrogans (bactérie de l'ordre des Spirochætales, comme le tréponème pâle, agent pathogène de la syphilis).
 Le genre Leptospira mesure de 6 à 12 micromètres. La bactérie est spiralée, flexible, mobile, avec des extrémités en crochet et un flagelle périplasmatique.
 Il existe de nombreux serovars (icterohaemorragiae, canicola, pomona, par exemple) qui ne présentent pas de signature antigénique homogène, ce qui rend difficile la conception de vaccins efficaces.
-Transmission
-La transmission se fait dans la plupart des cas de façon indirecte par des eaux infectées ou par le contact avec des tissus animaux infectés (travail dans les abattoirs). On a longtemps parlé de pénétration active de la bactérie à travers la peau. Les leptospires peuvent aussi pénétrer le corps humain par les muqueuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Leptospirose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La transmission se fait dans la plupart des cas de façon indirecte par des eaux infectées ou par le contact avec des tissus animaux infectés (travail dans les abattoirs). On a longtemps parlé de pénétration active de la bactérie à travers la peau. Les leptospires peuvent aussi pénétrer le corps humain par les muqueuses.
 La transmission peut aussi être directe (morsure de rats pour les égoutiers).
-Symptomatologie
-Incubation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Leptospirose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Symptomatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incubation
 7 à 14 jours (extrêmes de 2 à 21 jours)
 Première phase clinique
 début souvent brutal par une fièvre élevée (92 %), céphalées (75 %), myalgies (71 %) portant préférentiellement sur les cuisses et les mollets, reproductibles à la pression des masses musculaires. Toux, hémoptysie, douleur thoracique peuvent compléter le tableau.
@@ -566,51 +731,161 @@
 Tableaux d'hémorragies plus ou moins occultes (purpura, épistaxis, hémoptysie, hématémèse) secondaires à la thrombopénie, elle-même découlant de l'apparition d'anticorps anti plaquettes.
 Biologiquement, cela correspond à l'apparition des atteintes viscérales
 L'atteinte cardiaque, fréquente, se manifeste par une myocardite et/ou une péricardite.
-Prévention
-Il existe un vaccin, le spirolept, mais il ne protège que contre le sérotype ictero-haemorragiae (qui représente environ 45 % des leptospiroses). Cependant, les différents sérotypes partagent des antigènes communs, et on peut se poser la question d'une immunité partielle par le vaccin contre les autres sérotypes. Par ailleurs, c'est le s. Icterohemmoragiae qui est responsable de la forme la plus grave de leptospirose dite "maladie de Weil" Le reste de la prévention repose sur la lutte contre l'exposition aussi bien au niveau professionnel qu'au niveau des loisirs (bottes, gants), la dératisation en dehors de la période des pluies (au risque de voir une augmentation des cas par "lessivage" des cadavres par les eaux de pluie, par la vaccination des animaux domestiques, par la lutte contre les chiens errants.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Leptospirose</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe un vaccin, le spirolept, mais il ne protège que contre le sérotype ictero-haemorragiae (qui représente environ 45 % des leptospiroses). Cependant, les différents sérotypes partagent des antigènes communs, et on peut se poser la question d'une immunité partielle par le vaccin contre les autres sérotypes. Par ailleurs, c'est le s. Icterohemmoragiae qui est responsable de la forme la plus grave de leptospirose dite "maladie de Weil" Le reste de la prévention repose sur la lutte contre l'exposition aussi bien au niveau professionnel qu'au niveau des loisirs (bottes, gants), la dératisation en dehors de la période des pluies (au risque de voir une augmentation des cas par "lessivage" des cadavres par les eaux de pluie, par la vaccination des animaux domestiques, par la lutte contre les chiens errants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Maladie de Lyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transmission
-Les bactéries responsables des borrélioses sont des spirochètes du genre Borrelia.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries responsables des borrélioses sont des spirochètes du genre Borrelia.
 Elles se transmettent :
 par  morsure de poux ou de tiques pour les borrélioses tropicales (Borrelia recurrentis) ;
 par des tiques (deux espèces principales) pour la maladie de Lyme (Borrelia burgdorferi).
-In utéro de la mère à l'enfant (Borrelia burgdorferi)[3].
+In utéro de la mère à l'enfant (Borrelia burgdorferi).
 En climat tempéré, la contamination se produit souvent lors de parcours en forêt, du début du printemps à la fin de l'automne. En zone tropicale, le cycle de transmission est encore mal compris, mais il semble que les rongeurs commensaux de l'homme amènent les tiques dans les villages, dans les habitations et autres lieux de vie ou tout près.
-Épidémiologie
-La maladie de Lyme doit être prise au sérieux pour toute balade en forêt, à la campagne, en France, en Suisse et en Belgique notamment. Des cas de contaminations sont également signalés dans des jardins publics de grandes villes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Maladie de Lyme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Lyme doit être prise au sérieux pour toute balade en forêt, à la campagne, en France, en Suisse et en Belgique notamment. Des cas de contaminations sont également signalés dans des jardins publics de grandes villes.
 On parle de 20 à 50 cas pour 100 000 habitants en France. La prévalence est particulièrement forte chez les chasseurs (15 % d'entre eux ont été en contact avec les germes infectieux) et la maladie de Lyme est considérée comme une maladie professionnelle chez les forestiers.
 La maladie de Lyme est endémique dans certaines régions françaises comme l'Alsace, qui totaliserait d'après l'INVS la moitié des cas français à elle seule.
-Symptômatologie
-Une éruption inflammatoire se produit parfois entre trois jours et un mois après la piqûre. Elle se traduit sur la peau par une tache rouge qui s'étend de façon centrifuge à partir de la piqûre, parfois accompagnée de fièvre et plus rarement d'une affection neurologique. Le diagnostic est plus facile lorsqu'un érythème migrant est visible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spirochétose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spiroch%C3%A9tose_(maladie_professionnelle_en_France)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Maladie de Lyme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Symptômatologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une éruption inflammatoire se produit parfois entre trois jours et un mois après la piqûre. Elle se traduit sur la peau par une tache rouge qui s'étend de façon centrifuge à partir de la piqûre, parfois accompagnée de fièvre et plus rarement d'une affection neurologique. Le diagnostic est plus facile lorsqu'un érythème migrant est visible.
 La lésion peut passer inaperçue. Une phase secondaire de la maladie peut alors apparaître quelques semaines à quelques mois, voire des années plus tard, se manifestant par des atteintes articulaires, cutanées, cardiaques, neurologiques ou une fatigue chronique. Des manifestations très diverses, souvent accompagnées de douleurs articulaires (arthrites des grosses articulations) et de fatigue, les complications cardiaques peuvent s'avérer mortelles (arrêt cardiaque, syncope, arythmies).
 </t>
         </is>
